--- a/biology/Biochimie/Hormone_chorionique_gonadotrope_humaine/Hormone_chorionique_gonadotrope_humaine.xlsx
+++ b/biology/Biochimie/Hormone_chorionique_gonadotrope_humaine/Hormone_chorionique_gonadotrope_humaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hormone chorionique gonadotrope humaine, encore appelée gonadotropine  humaine ou hCG (de l'anglais : human chorionic gonadotropin) est une hormone glycoprotéique produite au cours de la grossesse de la femme, fabriquée par l'embryon peu de temps après la conception et plus tard par le trophoblaste (un tissu du placenta).
@@ -513,9 +525,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'HCG est une glycoprotéine composée de 237 acides aminés d'une masse moléculaire de 36,7 kDa. C'est un hétérodimère, avec une sous-unité α (alpha) (en) identique à la sous-unité α (alpha) de l'hormone lutéinisante (LH), l'hormone folliculo-stimulante (FSH), et l'hormone stimulant la thyroïde (TSH) et comptant 92 acides aminés. Sa sous-unité β (bêta) quant à elle est 67 % identique à l'hormone LH, elle compte 145 acides aminés et est responsable de son activité fonctionnelle. Cette protéine présente une structure quaternaire puisque deux chaînes polypeptidiques interviennent dans la formation de la glycoprotéine qui ne sont pas liées par des liaisons fortes notamment comme les ponts disulfures[1]. Cette hormone est sécrétée tôt, environ 8 jours après la fécondation et a une durée de vie de 24 heures.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'HCG est une glycoprotéine composée de 237 acides aminés d'une masse moléculaire de 36,7 kDa. C'est un hétérodimère, avec une sous-unité α (alpha) (en) identique à la sous-unité α (alpha) de l'hormone lutéinisante (LH), l'hormone folliculo-stimulante (FSH), et l'hormone stimulant la thyroïde (TSH) et comptant 92 acides aminés. Sa sous-unité β (bêta) quant à elle est 67 % identique à l'hormone LH, elle compte 145 acides aminés et est responsable de son activité fonctionnelle. Cette protéine présente une structure quaternaire puisque deux chaînes polypeptidiques interviennent dans la formation de la glycoprotéine qui ne sont pas liées par des liaisons fortes notamment comme les ponts disulfures. Cette hormone est sécrétée tôt, environ 8 jours après la fécondation et a une durée de vie de 24 heures.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fonction de l’hCG est essentiellement le maintien du corps jaune qui est responsable de la sécrétion de progestérone et d'oestrogène les trois à quatre premiers mois de grossesse. Mais elle a aussi un effet antigonadotrope puisqu’elle inhibe la sécrétion de la LH et de la FSH. L’hCG est dite stéroïdogène puisqu’elle favorise la sécrétion de progestérone du corps jaune mais aussi parce qu’elle stimule la sécrétion des stéroïdes des gonades fœtales. La régulation de la synthèse et de la sécrétion d’hCG est assurée par une GnRH trophoblastique.
 </t>
@@ -575,13 +591,50 @@
           <t>Taux physiologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dosage chez un homme : &lt; 8  à   10 mIU/mL
 Dosage chez une femme hors grossesse : &lt; 10  à   15 mIU/mL
 10 mIU/mL de hCG correspondent à environ 0.7ng/mL.
-Durant la grossesse
-Ces taux sont approximatifs et valables pour les grossesses non gémellaires. Ils ne permettent pas de dater la grossesse avec précision :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hormone_chorionique_gonadotrope_humaine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hormone_chorionique_gonadotrope_humaine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taux physiologiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Durant la grossesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces taux sont approximatifs et valables pour les grossesses non gémellaires. Ils ne permettent pas de dater la grossesse avec précision :
 première semaine après implantation : 20  à   30 mIU/mL ;
 deuxième semaine : 30  à   100 mIU/mL ;
 troisième semaine : 100  à   1 000 mIU/mL ;
@@ -594,36 +647,76 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hormone_chorionique_gonadotrope_humaine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hormone_chorionique_gonadotrope_humaine</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hormone_chorionique_gonadotrope_humaine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hormone_chorionique_gonadotrope_humaine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation du dosage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Test de grossesse
-La hCG est élaborée par le syncytiotrophoblaste du blastocyste à la suite de son implantation dans la muqueuse utérine. Cette hormone permettra le maintien du corps jaune dans l'ovaire. Elle sera retrouvée dans le sang de la mère (prise de sang) et aussi dans l'urine où elle est excrétée. Les tests de grossesse urinaires fonctionnent grâce à des anticorps anti-hCG qui se lieront avec l'hormone.
-Marqueur tumoral
-L'hormone gonadotrophine chorionique est aussi sécrétée par différentes tumeurs cancéreuses :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Test de grossesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La hCG est élaborée par le syncytiotrophoblaste du blastocyste à la suite de son implantation dans la muqueuse utérine. Cette hormone permettra le maintien du corps jaune dans l'ovaire. Elle sera retrouvée dans le sang de la mère (prise de sang) et aussi dans l'urine où elle est excrétée. Les tests de grossesse urinaires fonctionnent grâce à des anticorps anti-hCG qui se lieront avec l'hormone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hormone_chorionique_gonadotrope_humaine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hormone_chorionique_gonadotrope_humaine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation du dosage</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Marqueur tumoral</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hormone gonadotrophine chorionique est aussi sécrétée par différentes tumeurs cancéreuses :
 certains tératomes ;
 certains cancers du testicule (100 % des choriocarcinomes, 50 % des tumeurs non séminomateuses et 10 % des séminomes purs (forme syncitiotrophoblastique)) ;
 choriocarcinomes ;
@@ -634,69 +727,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hormone_chorionique_gonadotrope_humaine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hormone_chorionique_gonadotrope_humaine</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Utilisation de la molécule</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hCG est utilisée pour gérer la reproduction de plusieurs espèces en élevage, chez le panga[2],[3], un poisson d'origine asiatique, chez la chatte et chez la jument (pour provoquer l'ovulation, du fait de son activité LH). Elle est également détournée de son usage médical dans le cadre du dopage aux stéroides anabolisants particulièrement dans le monde du culturisme : en activant les récepteurs d'une autre hormone, la LH, dans les cellules de Leydig, elle permet aux athlètes masculins de conserver des testicules fonctionnels et ainsi leur production naturelle de testostérone lors de la prise de produits anabolisants.
-L'hCG a été utilisée comme traitement pour le syndrome de la maladie post-orgasmique[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hormone_chorionique_gonadotrope_humaine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hormone_chorionique_gonadotrope_humaine</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hCG peut être produite en l'extrayant de l'urine des femmes enceintes ou par modification génétique (ADN recombinant).
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -718,12 +748,81 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Utilisation de la molécule</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hCG est utilisée pour gérer la reproduction de plusieurs espèces en élevage, chez le panga un poisson d'origine asiatique, chez la chatte et chez la jument (pour provoquer l'ovulation, du fait de son activité LH). Elle est également détournée de son usage médical dans le cadre du dopage aux stéroides anabolisants particulièrement dans le monde du culturisme : en activant les récepteurs d'une autre hormone, la LH, dans les cellules de Leydig, elle permet aux athlètes masculins de conserver des testicules fonctionnels et ainsi leur production naturelle de testostérone lors de la prise de produits anabolisants.
+L'hCG a été utilisée comme traitement pour le syndrome de la maladie post-orgasmique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hormone_chorionique_gonadotrope_humaine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hormone_chorionique_gonadotrope_humaine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hCG peut être produite en l'extrayant de l'urine des femmes enceintes ou par modification génétique (ADN recombinant).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hormone_chorionique_gonadotrope_humaine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hormone_chorionique_gonadotrope_humaine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Controverse</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fin 2014 au Kenya, l'association des médecins catholiques du Kenya, l'Église catholique y gérant 54 hôpitaux, 83 centres de santé, 17 écoles de médecins et d'infirmiers au sein d'un réseau de soins qui procure également des vaccinations, a affirmé avoir trouvé un antigène de synthèse, l'hormone chorionique gonadotrope humaine, dans un vaccin antitétanique, injecté durant la campagne de vaccination soutenue par le gouvernement kényan[5]. Le gouvernement a catégoriquement démenti la présence de ces hormones dans les vaccins, qui n'aurait de toutes manières pas eu d'effet stérilisateur[6].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin 2014 au Kenya, l'association des médecins catholiques du Kenya, l'Église catholique y gérant 54 hôpitaux, 83 centres de santé, 17 écoles de médecins et d'infirmiers au sein d'un réseau de soins qui procure également des vaccinations, a affirmé avoir trouvé un antigène de synthèse, l'hormone chorionique gonadotrope humaine, dans un vaccin antitétanique, injecté durant la campagne de vaccination soutenue par le gouvernement kényan. Le gouvernement a catégoriquement démenti la présence de ces hormones dans les vaccins, qui n'aurait de toutes manières pas eu d'effet stérilisateur.
 </t>
         </is>
       </c>
